--- a/data/tag_deploy_retrieve_dates.xlsx
+++ b/data/tag_deploy_retrieve_dates.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luketheduke2/ownCloud/kemp_projects/bdot/R_projects/bdot_ethics/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leberhart/ownCloud/kemp_projects/bdot/R_projects/bdot_ethics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0E88BA13-ABF4-5A48-8429-8CF618D5C251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B793D84E-E536-1D45-A454-2E4C4A1673FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="2460" windowWidth="26440" windowHeight="15440"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tag_deploy_retrieve_dates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>parent</t>
   </si>
@@ -163,15 +175,6 @@
     <t>tag likely fell off a day after release</t>
   </si>
   <si>
-    <t>tag still on, but ariel missing</t>
-  </si>
-  <si>
-    <t>tag seen missing in 2023, assumed to have fallen off during winter, ted recap in 2024 to confirm</t>
-  </si>
-  <si>
-    <t>seen in KK 12.08.2024 with ariel (and tag)</t>
-  </si>
-  <si>
     <t>Bibman</t>
   </si>
   <si>
@@ -179,12 +182,21 @@
   </si>
   <si>
     <t xml:space="preserve">tag 21107 retrieved but no data </t>
+  </si>
+  <si>
+    <t>tag seen missing in 2023, assumed to have fallen off during winter, ted recap 24/9/2024 to confirm</t>
+  </si>
+  <si>
+    <t>seen in KK 12.08.2024 with ariel (and tag), seen 20/8/24 with aerial (pursuing a metal banded female by Lyell creek beach)</t>
+  </si>
+  <si>
+    <t>tag still on, but ariel missing last seen 9/11/24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1020,14 +1032,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
@@ -1267,7 +1279,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -1279,7 +1291,7 @@
         <v>44860</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>41</v>
@@ -1302,7 +1314,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1">
         <v>45040</v>
@@ -1368,7 +1380,7 @@
         <v>44860</v>
       </c>
       <c r="E15" s="1">
-        <v>45176</v>
+        <v>45542</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
@@ -1391,7 +1403,7 @@
         <v>44861</v>
       </c>
       <c r="E16" s="1">
-        <v>44862</v>
+        <v>44888</v>
       </c>
       <c r="F16" t="s">
         <v>46</v>
@@ -1417,7 +1429,7 @@
         <v>45108</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1">
         <v>44947</v>
@@ -1459,11 +1471,11 @@
       <c r="D19" s="1">
         <v>44862</v>
       </c>
-      <c r="E19" s="1">
-        <v>45134</v>
+      <c r="E19" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G19" s="1">
         <v>45295</v>
@@ -1509,7 +1521,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G21" s="1">
         <v>45044</v>

--- a/data/tag_deploy_retrieve_dates.xlsx
+++ b/data/tag_deploy_retrieve_dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leberhart/ownCloud/kemp_projects/bdot/R_projects/bdot_ethics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B793D84E-E536-1D45-A454-2E4C4A1673FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEDAB32-25A6-D841-9AD3-312E00305E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>parent</t>
   </si>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1402,8 +1402,8 @@
       <c r="D16" s="1">
         <v>44861</v>
       </c>
-      <c r="E16" s="1">
-        <v>44888</v>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F16" t="s">
         <v>46</v>
